--- a/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2021/ifoCAst_errors_filtered_latest_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_matched_since_2021/ifoCAst_errors_filtered_latest_since_2021.xlsx
@@ -686,7 +686,7 @@
         <v>0.02585042314335589</v>
       </c>
       <c r="D18">
-        <v>0.7115302104241067</v>
+        <v>0.6447426901493167</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -697,7 +697,10 @@
         <v>0.2427972171433558</v>
       </c>
       <c r="C19">
-        <v>0.3054124294241067</v>
+        <v>0.2386249091493167</v>
+      </c>
+      <c r="D19">
+        <v>0.597740902</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -705,7 +708,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.05603945542410671</v>
+        <v>-0.0107480648506833</v>
+      </c>
+      <c r="C20">
+        <v>0.042359665</v>
       </c>
     </row>
   </sheetData>
